--- a/data/business_info.xlsx
+++ b/data/business_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,12 +498,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/CVS+Pharmacy/@40.7241897,-73.8101429,13z/data=!4m10!1m2!2m1!1spharmacy+in+queens!3m6!1s0x89c25e27413a6497:0xfbcd31ce41163eff!8m2!3d40.7214219!4d-73.842995!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUnhlRTF5WjNaUlJSQUKqAVQKCS9tLzAxcmZwcxABKgwiCHBoYXJtYWN5KAAyHxABIhtXqgvvP1iBCJLD5Flqh9sChHmBoY-PPthMVK4yFhACIhJwaGFybWFjeSBpbiBxdWVlbnPgAQD6AQQIIRBL!16s%2Fg%2F11c468ssc0?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+          <t>https://www.google.com/maps/place/CVS+Pharmacy/@40.7142779,-73.8101429,13z/data=!4m10!1m2!2m1!1spharmacy+in+queens!3m6!1s0x89c25e27413a6497:0xfbcd31ce41163eff!8m2!3d40.7214219!4d-73.842995!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUnhlRTF5WjNaUlJSQUKqAVQKCS9tLzAxcmZwcxABKgwiCHBoYXJtYWN5KAAyHxABIhtXqgvvP1iBCJLD5Flqh9sChHmBoY-PPthMVK4yFhACIhJwaGFybWFjeSBpbiBxdWVlbnPgAQD6AQQIIRBL!16s%2Fg%2F11c468ssc0?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-09-24 12:06:13</t>
+          <t>2025-09-24 14:15:44</t>
         </is>
       </c>
     </row>
@@ -540,12 +540,16 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-09-24 12:06:19</t>
+          <t>2025-09-24 14:15:55</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Queens Central Pharmacy INC</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>4.7</t>
@@ -573,7 +577,3928 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-09-24 12:06:43</t>
+          <t>2025-09-24 14:16:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Walgreens Pharmacy</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>104-25 Queens Blvd, Forest Hills, NY 11375, United States</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>+1 718-896-7901</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://www.walgreens.com/locator/walgreens-10425+queens+blvd-forest+hills-ny-11375/id=1487</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Walgreens+Pharmacy/@40.7214219,-73.9150928,13z/data=!4m10!1m2!2m1!1spharmacy+in+queens!3m6!1s0x89c25e25d700dac1:0xa3026462eeb50815!8m2!3d40.7239861!4d-73.8479646!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUmlha2x4U0VWUkVBRaoBVAoJL20vMDFyZnBzEAEqDCIIcGhhcm1hY3koADIfEAEiG1eqC-8_WIEIksPkWWqH2wKEeYGhj48-2ExUrjIWEAIiEnBoYXJtYWN5IGluIHF1ZWVuc-ABAPoBBAg5ECs!16s%2Fg%2F11cn94zmlg?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2025-09-24 14:16:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CVS Pharmacy</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>118-10 Queens Blvd, Forest Hills, NY 11375, United States</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>+1 718-520-4530</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>https://www.cvs.com/store-locator/forest-hills-ny-pharmacies/118-10-queens-boulevard-corner-of-78th-avenue-forest-hills-ny-11375/storeid=499?WT.mc_id=LS_GOOGLE_RX_499</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/CVS+Pharmacy/@40.7214219,-73.9150928,13z/data=!4m10!1m2!2m1!1spharmacy+in+queens!3m6!1s0x89c2618223eaf67d:0xdfdedf9668b6a312!8m2!3d40.7146041!4d-73.8324877!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTmxOVFZFVTBwUkVBRaoBVAoJL20vMDFyZnBzEAEqDCIIcGhhcm1hY3koADIfEAEiG1eqC-8_WIEIksPkWWqH2wKEeYGhj48-2ExUrjIWEAIiEnBoYXJtYWN5IGluIHF1ZWVuc-ABAPoBBAgAEEU!16s%2Fg%2F11fv3wksyg?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2025-09-24 14:16:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Walgreens Pharmacy</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>119-02 Rockaway Blvd, South Ozone Park, NY 11420, United States</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>+1 718-529-9503</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>https://www.walgreens.com/locator/walgreens-11902+rockaway+blvd-south+ozone+park-ny-11420/id=4445</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Walgreens+Pharmacy/@40.7214219,-73.9150928,13z/data=!4m10!1m2!2m1!1spharmacy+in+queens!3m6!1s0x89c267409ac55929:0xdd181892640369fd!8m2!3d40.6755211!4d-73.8189907!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTjRjbkl0UzJKQkVBRaoBVAoJL20vMDFyZnBzEAEqDCIIcGhhcm1hY3koADIfEAEiG1eqC-8_WIEIksPkWWqH2wKEeYGhj48-2ExUrjIWEAIiEnBoYXJtYWN5IGluIHF1ZWVuc-ABAPoBBAgAEBY!16s%2Fg%2F11cn94gkjr?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2025-09-24 14:17:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>CVS Pharmacy</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>3.4</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>219-39 89th Ave, Queens Village, NY 11427, United States</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>+1 718-479-3774</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>https://www.cvs.com/store-locator/queens-village-ny-pharmacies/219-39-89th-avenue-queens-village-ny-11427/storeid=144?WT.mc_id=LS_GOOGLE_RX_144</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/CVS+Pharmacy/@40.6755211,-73.8910885,13z/data=!4m10!1m2!2m1!1spharmacy+in+queens!3m6!1s0x89c26228ec87a703:0x555e634870eeac42!8m2!3d40.7294008!4d-73.7437864!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTlBhamhJUmxWbkVBRaoBVAoJL20vMDFyZnBzEAEqDCIIcGhhcm1hY3koADIfEAEiG1eqC-8_WIEIksPkWWqH2wKEeYGhj48-2ExUrjIWEAIiEnBoYXJtYWN5IGluIHF1ZWVuc-ABAPoBBAg_ED0!16s%2Fg%2F11c467h_wc?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2025-09-24 14:17:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Queens Village Pharmacy</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>214-44 Hillside Ave., Queens Village, NY 11427, United States</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>+1 718-776-1123</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>http://queensvillagerx.com/</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Queens+Village+Pharmacy/@40.7294008,-73.8158842,13z/data=!4m10!1m2!2m1!1spharmacy+in+queens!3m6!1s0x89c26180cd9d8b33:0xbd1d34253b2a1760!8m2!3d40.7265935!4d-73.7499763!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTnFiMjlpYkRCUlJSQUKqAVQKCS9tLzAxcmZwcxABKgwiCHBoYXJtYWN5KAAyHxABIhtXqgvvP1iBCJLD5Flqh9sChHmBoY-PPthMVK4yFhACIhJwaGFybWFjeSBpbiBxdWVlbnPgAQD6AQQIABBE!16s%2Fg%2F11g9qv_vgm?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2025-09-24 14:17:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Walgreens Pharmacy</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>3.3</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>110-88 Queens Blvd, Forest Hills, NY 11375, United States</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>+1 718-275-5252</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>https://www.walgreens.com/locator/walgreens-11088+queens+blvd-forest+hills-ny-11375/id=19694</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Walgreens+Pharmacy/@40.7294008,-73.8158842,13z/data=!4m10!1m2!2m1!1spharmacy+in+queens!3m6!1s0x89c261c9d9f5dbd5:0x89187fce485eacc0!8m2!3d40.7184402!4d-73.8381986!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASRDaGREU1VoTk1HOW5TMFZKUTBGblRVTkJjR0ZZY1cxQlJSQUKqAVQKCS9tLzAxcmZwcxABKgwiCHBoYXJtYWN5KAAyHxABIhtXqgvvP1iBCJLD5Flqh9sChHmBoY-PPthMVK4yFhACIhJwaGFybWFjeSBpbiBxdWVlbnPgAQD6AQQIABA3!16s%2Fg%2F11h84b1t5c?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2025-09-24 14:17:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Metro Scripts Pharmacy</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>97-08 Metropolitan Ave, Forest Hills, NY 11375, United States</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>+1 718-635-0217</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Metro+Scripts+Pharmacy/@40.7110221,-73.9274891,13z/data=!4m10!1m2!2m1!1spharmacy+in+queens!3m6!1s0x89c25fc4f6a8885d:0x558ef2e88f325660!8m2!3d40.7110221!4d-73.8553913!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTlhaMTlVUkhoblJSQUKqAVQKCS9tLzAxcmZwcxABKgwiCHBoYXJtYWN5KAAyHxABIhtXqgvvP1iBCJLD5Flqh9sChHmBoY-PPthMVK4yFhACIhJwaGFybWFjeSBpbiBxdWVlbnPgAQD6AQQIABA1!16s%2Fg%2F11q2qr6xfm?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2025-09-24 14:18:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Queens Pharmacy Center Inc.</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>3.1</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>82-35 164th St, Jamaica, NY 11432, United States</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>+1 718-380-1261</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Queens+Pharmacy+Center+Inc./@40.7183404,-73.8755636,13z/data=!4m10!1m2!2m1!1spharmacy+in+queens!3m6!1s0x89c260e4e07e811d:0xaa4799dd48ee5968!8m2!3d40.7183404!4d-73.8034658!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUkhNMUJpV0MxblJSQUKqAVQKCS9tLzAxcmZwcxABKgwiCHBoYXJtYWN5KAAyHxABIhtXqgvvP1iBCJLD5Flqh9sChHmBoY-PPthMVK4yFhACIhJwaGFybWFjeSBpbiBxdWVlbnPgAQD6AQUI-AEQOA!16s%2Fg%2F11hctkv2d0?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2025-09-24 14:19:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Direct Rx Pharmacy</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>102-05 Jamaica Ave, Richmond Hill, NY 11418, United States</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>+1 718-441-4693</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>http://www.directrxpharmacyinc.com/</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Direct+Rx+Pharmacy/@40.7183404,-73.8755636,13z/data=!4m10!1m2!2m1!1spharmacy+in+queens!3m6!1s0x89c25dfe2db59181:0xcae84045ea134905!8m2!3d40.6953446!4d-73.8450976!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTk1NVnBYVkdWQkVBRaoBVAoJL20vMDFyZnBzEAEqDCIIcGhhcm1hY3koADIfEAEiG1eqC-8_WIEIksPkWWqH2wKEeYGhj48-2ExUrjIWEAIiEnBoYXJtYWN5IGluIHF1ZWVuc-ABAPoBBAgPEEo!16s%2Fg%2F1262b63v0?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2025-09-24 14:19:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Phils Pill Pharmacy</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>83-87 Woodhaven Blvd, Woodhaven, NY 11421, United States</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>+1 718-480-6484</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>https://philspillpharmacy.wixsite.com/website</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Phils+Pill+Pharmacy/@40.6953446,-73.9171954,13z/data=!4m10!1m2!2m1!1spharmacy+in+queens!3m6!1s0x89c25f0147a2cc1d:0x2c3a35e0b83ca7ed!8m2!3d40.6982792!4d-73.852322!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUXliRnAxVERSblJSQUKqAVQKCS9tLzAxcmZwcxABKgwiCHBoYXJtYWN5KAAyHxABIhtXqgvvP1iBCJLD5Flqh9sChHmBoY-PPthMVK4yFhACIhJwaGFybWFjeSBpbiBxdWVlbnPgAQD6AQQIABA4!16s%2Fg%2F11j5wwy14p?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2025-09-24 14:19:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Walgreens Pharmacy</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>3.3</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>109-62 Francis Lewis Blvd, Queens Village, NY 11429, United States</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>+1 718-740-4612</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>https://www.walgreens.com/locator/walgreens-10962+francis+lewis+blvd-queens+village-ny-11429/id=2055</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Walgreens+Pharmacy/@40.6953446,-73.9171954,13z/data=!3m1!5s0x89c261617a93a511:0xf64cab3c59338ed7!4m10!1m2!2m1!1spharmacy+in+queens!3m6!1s0x89c261617ab1c44f:0xfe83d572c0bb46e5!8m2!3d40.7064346!4d-73.7512258!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTmZOSEI1Wm5kQlJSQUKqAVQKCS9tLzAxcmZwcxABKgwiCHBoYXJtYWN5KAAyHxABIhtXqgvvP1iBCJLD5Flqh9sChHmBoY-PPthMVK4yFhACIhJwaGFybWFjeSBpbiBxdWVlbnPgAQD6AQQIPBAZ!16s%2Fg%2F11cnbm6y_q?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2025-09-24 14:19:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Victoria Pharmacy</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>3.2</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>44-45 Kissena Blvd # A, Flushing, NY 11355, United States</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>+1 718-886-6200</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Victoria+Pharmacy/@40.7530348,-73.8935785,13z/data=!4m10!1m2!2m1!1spharmacy+in+queens!3m6!1s0x89c26014de706553:0xeea540e1e9e2931f!8m2!3d40.7530348!4d-73.8214807!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUmFOazVVWjFOQkVBRaoBVAoJL20vMDFyZnBzEAEqDCIIcGhhcm1hY3koADIfEAEiG1eqC-8_WIEIksPkWWqH2wKEeYGhj48-2ExUrjIWEAIiEnBoYXJtYWN5IGluIHF1ZWVuc-ABAPoBBAgcEDU!16s%2Fg%2F1wb8vm6h?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2025-09-24 14:20:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>REGO PARK PHARMACY</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>66-01 Saunders St GROUND FLOOR, Rego Park, NY 11374, United States</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>+1 718-275-6666</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>https://regoparkpharmacy.com/</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/REGO+PARK+PHARMACY/@40.7530348,-73.8935785,13z/data=!4m10!1m2!2m1!1spharmacy+in+queens!3m6!1s0x89c25f4e21f702f1:0x3d7a6f0a9299da98!8m2!3d40.727108!4d-73.856206!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUjBPVXBQZFZobkVBRaoBVAoJL20vMDFyZnBzEAEqDCIIcGhhcm1hY3koADIfEAEiG1eqC-8_WIEIksPkWWqH2wKEeYGhj48-2ExUrjIWEAIiEnBoYXJtYWN5IGluIHF1ZWVuc-ABAPoBBAgsEEE!16s%2Fg%2F11gj_zyr52?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2025-09-24 14:20:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Peace Love Pharmacy</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>63-52 Woodhaven Blvd, Rego Park, NY 11374, United States</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>+1 718-651-1000</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>http://www.peacelovepharmacy.com/</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Peace+Love+Pharmacy/@40.727108,-73.9283038,13z/data=!4m10!1m2!2m1!1spharmacy+in+queens!3m6!1s0x89c25e4120c0e945:0x259e5aff4f35e29b!8m2!3d40.7230234!4d-73.8684278!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUjFkVFZoT0hOUlJSQUKqAVQKCS9tLzAxcmZwcxABKgwiCHBoYXJtYWN5KAAyHxABIhtXqgvvP1iBCJLD5Flqh9sChHmBoY-PPthMVK4yFhACIhJwaGFybWFjeSBpbiBxdWVlbnPgAQD6AQQIGxA5!16s%2Fg%2F1tdygk56?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2025-09-24 14:20:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Frost Pharmacy</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>86-52 Queens Blvd, Flushing, NY 11373, United States</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>+1 718-457-3192</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Frost+Pharmacy/@40.7354303,-73.9485973,13z/data=!4m10!1m2!2m1!1spharmacy+in+queens!3m6!1s0x89c25e4dfb33b7eb:0xd6b5881305cd64c!8m2!3d40.7354303!4d-73.8764995!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTkljbU5NVW10M1JSQUKqAVQKCS9tLzAxcmZwcxABKgwiCHBoYXJtYWN5KAAyHxABIhtXqgvvP1iBCJLD5Flqh9sChHmBoY-PPthMVK4yFhACIhJwaGFybWFjeSBpbiBxdWVlbnPgAQD6AQQIZBAy!16s%2Fg%2F1td72y21?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2025-09-24 14:21:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Reo Chemist Inc</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>81-12 Lefferts Blvd, Kew Gardens, NY 11415, United States</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>+1 718-849-4661</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>http://reo-chemist-inc.jany.io/</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Reo+Chemist+Inc/@40.7354303,-73.9485973,13z/data=!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c260bcb1769665:0x9a1982878ad2e810!8m2!3d40.7091937!4d-73.8302682!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTnFORnBJYnpOUlJSQUKqAVQKCS9tLzAxcmZwcxABKgwiCHBoYXJtYWN5KAAyHxABIhtXqgvvP1iBCJLD5Flqh9sChHmBoY-PPthMVK4yFhACIhJwaGFybWFjeSBpbiBxdWVlbnPgAQD6AQQIXRAx!16s%2Fg%2F1hhh1w67d?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2025-09-24 14:21:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Colony Drugs &amp; Surgicals</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>103-19 Queens Blvd, Forest Hills, NY 11375, United States</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>+1 718-897-4888</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Colony+Drugs+%26+Surgicals/@40.7246456,-73.9215921,13z/data=!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c25e25be98a3a3:0x25303fa36d1b8a55!8m2!3d40.7246456!4d-73.8494943!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASNDaFpEU1VoTk1HOW5TMFZRVDB3Mk5UWlNhRGRpVTA5bkVBRaoBVAoJL20vMDFyZnBzEAEqDCIIcGhhcm1hY3koADIfEAEiG1eqC-8_WIEIksPkWWqH2wKEeYGhj48-2ExUrjIWEAIiEnBoYXJtYWN5IGluIHF1ZWVuc-ABAPoBBAgAEDo!16s%2Fg%2F1ttyxnfs?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2025-09-24 14:22:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Eisler Chemists</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1142 Lexington Ave, New York, NY 10075, United States</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>+1 212-744-4144</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>http://www.eislerchemist.com/</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Eisler+Chemists/@40.7246456,-73.9215921,13z/data=!4m10!1m3!2m2!1spharmacy+in+queens!6e2!3m5!1s0x89c258be2398dcb5:0x1653e85655d71743!8m2!3d40.775172!4d-73.958902!16s%2Fg%2F1vyn4s06?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2025-09-24 14:22:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Mela Pharmacy</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>110-03 101st Ave, South Richmond Hill, NY 11419, United States</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>+1 718-674-6161</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>http://melapharmacy.com/</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Mela+Pharmacy/@40.775172,-74.0309998,13z/data=!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c2674544de0a21:0x7231307e581b0afd!8m2!3d40.6880013!4d-73.8336272!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTnNkWEUzTXpkblJSQUKqAVQKCS9tLzAxcmZwcxABKgwiCHBoYXJtYWN5KAAyHxABIhtXqgvvP1iBCJLD5Flqh9sChHmBoY-PPthMVK4yFhACIhJwaGFybWFjeSBpbiBxdWVlbnPgAQD6AQQIABA-!16s%2Fg%2F11l35sgzyx?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2025-09-24 14:22:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>MedAid Pharmacy</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>98-32 Queens Blvd, Rego Park, NY 11374, United States</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>+1 718-516-0000</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>https://medaidrx.com/</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/MedAid+Pharmacy/@40.6880013,-73.905725,13z/data=!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c25fc8ca119845:0xa25dc73a22e05532!8m2!3d40.7279039!4d-73.8572446!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASNDaFpEU1VoTk1HOW5TMFZRVkU5MGMxTlZhVFZpUlZCM0VBRaoBVAoJL20vMDFyZnBzEAEqDCIIcGhhcm1hY3koADIfEAEiG1eqC-8_WIEIksPkWWqH2wKEeYGhj48-2ExUrjIWEAIiEnBoYXJtYWN5IGluIHF1ZWVuc-ABAPoBBQjUAhBH!16s%2Fg%2F11ycz96n20?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2025-09-24 14:23:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Walgreens Pharmacy</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>3.3</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>109-62 Francis Lewis Blvd, Queens Village, NY 11429, United States</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>+1 718-740-4612</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>https://www.walgreens.com/locator/walgreens-10962+francis+lewis+blvd-queens+village-ny-11429/id=2055</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Walgreens+Pharmacy/@40.7279039,-73.9293424,13z/data=!3m1!5s0x89c261617a93a511:0xf64cab3c59338ed7!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c261617ab1c44f:0xfe83d572c0bb46e5!8m2!3d40.7064346!4d-73.7512258!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTmZOSEI1Wm5kQlJSQUKqAVQKCS9tLzAxcmZwcxABKgwiCHBoYXJtYWN5KAAyHxABIhtXqgvvP1iBCJLD5Flqh9sChHmBoY-PPthMVK4yFhACIhJwaGFybWFjeSBpbiBxdWVlbnPgAQD6AQQIPBAZ!16s%2Fg%2F11cnbm6y_q?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2025-09-24 14:23:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Peace Love Pharmacy</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>63-52 Woodhaven Blvd, Rego Park, NY 11374, United States</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>+1 718-651-1000</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>http://www.peacelovepharmacy.com/</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Peace+Love+Pharmacy/@40.7064346,-73.8233236,13z/data=!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c25e4120c0e945:0x259e5aff4f35e29b!8m2!3d40.7230234!4d-73.8684278!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUjFkVFZoT0hOUlJSQUKqAVQKCS9tLzAxcmZwcxABKgwiCHBoYXJtYWN5KAAyHxABIhtXqgvvP1iBCJLD5Flqh9sChHmBoY-PPthMVK4yFhACIhJwaGFybWFjeSBpbiBxdWVlbnPgAQD6AQQIGxA5!16s%2Fg%2F1tdygk56?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2025-09-24 14:23:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Franklin Pharmacy</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>94-31 59th Ave, Elmhurst, NY 11373, United States</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>+1 718-592-7200</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>https://www.mygnp.com/pharmacies/franklin-pharmacy-elmhurst-ny-11373/</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Franklin+Pharmacy/@40.7230234,-73.9405256,13z/data=!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c25e4a6e9cc01d:0xe9f60a879e49ef4d!8m2!3d40.7353057!4d-73.865774!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASRDaGREU1VoTk1HOW5TMFZRZGxaeFQwdFZYeTFFUkhCblJSQUKqAVQKCS9tLzAxcmZwcxABKgwiCHBoYXJtYWN5KAAyHxABIhtXqgvvP1iBCJLD5Flqh9sChHmBoY-PPthMVK4yFhACIhJwaGFybWFjeSBpbiBxdWVlbnPgAQD6AQQIOhA_!16s%2Fg%2F1tl_mmyg?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2025-09-24 14:23:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>HealthMax Pharmacy</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>80-07 Jamaica Ave, Woodhaven, NY 11421, United States</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>+1 718-296-0400</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>https://www.mygnp.com/pharmacies/health-max-pharmacy-woodhaven-ny-11421/?utm_source=google&amp;utm_medium=local&amp;utm_campaign=localmaps&amp;utm_content=3324061</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/HealthMax+Pharmacy/@40.7230234,-73.9405256,13z/data=!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c25de6ddd89dd1:0xa87cd34db57e6860!8m2!3d40.6923002!4d-73.8621017!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maAURDaTlEUVVsUlFVTnZaRU5vZEhsalJqbHZUMnBLYmsxRVJrUlphMmg0WWxWS1ExSllRa3hhUmpneFpVVnNibFV4UlJBQqoBVAoJL20vMDFyZnBzEAEqDCIIcGhhcm1hY3koADIfEAEiG1eqC-8_WIEIksPkWWqH2wKEeYGhj48-2ExUrjIWEAIiEnBoYXJtYWN5IGluIHF1ZWVuc-ABAPoBBAgAED8!16s%2Fg%2F1tdv_t87?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>2025-09-24 14:24:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>REGO PARK PHARMACY</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>66-01 Saunders St GROUND FLOOR, Rego Park, NY 11374, United States</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>+1 718-275-6666</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>https://regoparkpharmacy.com/</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/REGO+PARK+PHARMACY/@40.7230234,-73.9405256,13z/data=!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c25f4e21f702f1:0x3d7a6f0a9299da98!8m2!3d40.727108!4d-73.856206!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUjBPVXBQZFZobkVBRaoBVAoJL20vMDFyZnBzEAEqDCIIcGhhcm1hY3koADIfEAEiG1eqC-8_WIEIksPkWWqH2wKEeYGhj48-2ExUrjIWEAIiEnBoYXJtYWN5IGluIHF1ZWVuc-ABAPoBBAgsEEE!16s%2Fg%2F11gj_zyr52?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>2025-09-24 14:24:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Colombo's Pharmacy</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>75-51 Metropolitan Ave, Middle Village, NY 11379, United States</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>+1 718-418-9700</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>http://colombospharmacy.com/</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Colombo's+Pharmacy/@40.7230234,-73.9405256,13z/data=!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c25e6f72b04525:0xf3df53c256788f56!8m2!3d40.7133186!4d-73.8757138!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maAURDaTlEUVVsUlFVTnZaRU5vZEhsalJqbHZUMjFPVkZneFkzaGpNamx2VVZSbk0xWlZhRmhrVjFKRFVXeEJNRmt6WXhBQqoBVAoJL20vMDFyZnBzEAEqDCIIcGhhcm1hY3koADIfEAEiG1eqC-8_WIEIksPkWWqH2wKEeYGhj48-2ExUrjIWEAIiEnBoYXJtYWN5IGluIHF1ZWVuc-ABAPoBBAggEEc!16s%2Fg%2F1td2vtrn?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>2025-09-24 14:24:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Walgreens Pharmacy</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>80-11 Eliot Ave, Middle Village, NY 11379, United States</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>+1 718-505-8192</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>https://www.walgreens.com/locator/walgreens-8011+eliot+ave-middle+village-ny-11379/id=9869</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Walgreens+Pharmacy/@40.7230234,-73.9405256,13z/data=!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c25e5b60252e1b:0x779f68b8f002e007!8m2!3d40.7255254!4d-73.8789689!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maAURDaTlEUVVsUlFVTnZaRU5vZEhsalJqbHZUMnhyTW1WcE1XOVdhMVY2VFZkUmVsVXpWbEZSYXpseVRURnJlVlpGUlJBQqoBVAoJL20vMDFyZnBzEAEqDCIIcGhhcm1hY3koADIfEAEiG1eqC-8_WIEIksPkWWqH2wKEeYGhj48-2ExUrjIWEAIiEnBoYXJtYWN5IGluIHF1ZWVuc-ABAPoBBAgAEB0!16s%2Fg%2F11cn94tsm4?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>2025-09-24 14:24:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Phils Pill Pharmacy</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>83-87 Woodhaven Blvd, Woodhaven, NY 11421, United States</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>+1 718-480-6484</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>https://philspillpharmacy.wixsite.com/website</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Phils+Pill+Pharmacy/@40.7230234,-73.9405256,13z/data=!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c25f0147a2cc1d:0x2c3a35e0b83ca7ed!8m2!3d40.6982792!4d-73.852322!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUXliRnAxVERSblJSQUKqAVQKCS9tLzAxcmZwcxABKgwiCHBoYXJtYWN5KAAyHxABIhtXqgvvP1iBCJLD5Flqh9sChHmBoY-PPthMVK4yFhACIhJwaGFybWFjeSBpbiBxdWVlbnPgAQD6AQQIABA4!16s%2Fg%2F11j5wwy14p?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>2025-09-24 14:25:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Laguardia Pharmacy</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>101-22 Astoria Blvd, East Elmhurst, NY 11369, United States</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>+1 718-478-2576</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>https://laguardiapharmacy.com/</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Laguardia+Pharmacy/@40.7230234,-73.9405256,13z/data=!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c25f94e5090219:0x71af9b53f0e41172!8m2!3d40.7614938!4d-73.8675434!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUllhalZNWTJaQkVBRaoBVAoJL20vMDFyZnBzEAEqDCIIcGhhcm1hY3koADIfEAEiG1eqC-8_WIEIksPkWWqH2wKEeYGhj48-2ExUrjIWEAIiEnBoYXJtYWN5IGluIHF1ZWVuc-ABAPoBBAgvEEU!16s%2Fg%2F11b893pnjj?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>2025-09-24 14:25:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Frost Pharmacy</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>86-52 Queens Blvd, Flushing, NY 11373, United States</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>+1 718-457-3192</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Frost+Pharmacy/@40.7230234,-73.9405256,13z/data=!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c25e4dfb33b7eb:0xd6b5881305cd64c!8m2!3d40.7354303!4d-73.8764995!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTkljbU5NVW10M1JSQUKqAVQKCS9tLzAxcmZwcxABKgwiCHBoYXJtYWN5KAAyHxABIhtXqgvvP1iBCJLD5Flqh9sChHmBoY-PPthMVK4yFhACIhJwaGFybWFjeSBpbiBxdWVlbnPgAQD6AQQIZBAy!16s%2Fg%2F1td72y21?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>2025-09-24 14:25:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Medex Pharmacy</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>96-02 Jamaica Ave, Woodhaven, NY 11421, United States</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>+1 718-805-7000</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>http://medexpharmacyny.com/</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Medex+Pharmacy/@40.7230234,-73.9405256,13z/data=!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c25dfdb585bb39:0x17143258a0b1b40d!8m2!3d40.6943206!4d-73.8493627!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maAURDaTlEUVVsUlFVTnZaRU5vZEhsalJqbHZUMnBTWmxvelRrMU9NRlkxVjBkMFdFeFdhR3haYlhSdFkyeGFhMUZXUlJBQqoBVAoJL20vMDFyZnBzEAEqDCIIcGhhcm1hY3koADIfEAEiG1eqC-8_WIEIksPkWWqH2wKEeYGhj48-2ExUrjIWEAIiEnBoYXJtYWN5IGluIHF1ZWVuc-ABAPoBBAgAEEU!16s%2Fg%2F1tdygk4_?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>2025-09-24 14:26:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>AV Pharmacy</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>94-61 Corona Ave., Elmhurst, NY 11373, United States</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>+1 718-271-1262</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/AV+Pharmacy/@40.7423502,-73.9399171,13z/data=!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c25fb5b6594615:0xb4262b1c73b43f0f!8m2!3d40.7423502!4d-73.8678193!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTTFPRWt6UVU1UkVBRaoBVAoJL20vMDFyZnBzEAEqDCIIcGhhcm1hY3koADIfEAEiG1eqC-8_WIEIksPkWWqH2wKEeYGhj48-2ExUrjIWEAIiEnBoYXJtYWN5IGluIHF1ZWVuc-ABAPoBBAgAEBE!16s%2Fg%2F1w96hnr9?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>2025-09-24 14:26:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Colony Drugs &amp; Surgicals</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>103-19 Queens Blvd, Forest Hills, NY 11375, United States</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>+1 718-897-4888</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Colony+Drugs+%26+Surgicals/@40.7246456,-73.9215921,13z/data=!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c25e25be98a3a3:0x25303fa36d1b8a55!8m2!3d40.7246456!4d-73.8494943!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASNDaFpEU1VoTk1HOW5TMFZRVDB3Mk5UWlNhRGRpVTA5bkVBRaoBVAoJL20vMDFyZnBzEAEqDCIIcGhhcm1hY3koADIfEAEiG1eqC-8_WIEIksPkWWqH2wKEeYGhj48-2ExUrjIWEAIiEnBoYXJtYWN5IGluIHF1ZWVuc-ABAPoBBAgAEDo!16s%2Fg%2F1ttyxnfs?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>2025-09-24 14:27:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Richmond Hill Pharmacy Inc.</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>125-04 Jamaica Ave, Richmond Hill, NY 11418, United States</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>+1 718-570-8288</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>http://www.rhpharminc.com/</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Richmond+Hill+Pharmacy+Inc./@40.7246456,-73.9215921,13z/data=!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c260b0dc01c27b:0xbb5c0258ac9861fc!8m2!3d40.700804!4d-73.825382!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maAURDaTlEUVVsUlFVTnZaRU5vZEhsalJqbHZUMjFPUm1FeU5XcGhiVWsxVWxWT2RsSnNWVEJOU0ZadllWZEtTRk5YWXhBQqoBVAoJL20vMDFyZnBzEAEqDCIIcGhhcm1hY3koADIfEAEiG1eqC-8_WIEIksPkWWqH2wKEeYGhj48-2ExUrjIWEAIiEnBoYXJtYWN5IGluIHF1ZWVuc-ABAPoBBAgAECw!16s%2Fg%2F11gc22m6cw?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>2025-09-24 14:27:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Prime Health Pharmacy</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>69-21 164th St #3, Fresh Meadows, NY 11365, United States</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>+1 718-969-1600</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>http://www.facebook.com/primehealthpharmacy</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Richmond+Hill+Pharmacy+Inc./@40.700804,-73.8974798,13z/data=!4m13!1m3!2m2!1spharmacy+in+queens!6e2!3m8!1s0x89c260b0dc01c27b:0xbb5c0258ac9861fc!8m2!3d40.700804!4d-73.825382!9m1!1b1!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maAURDaTlEUVVsUlFVTnZaRU5vZEhsalJqbHZUMjFPUm1FeU5XcGhiVWsxVWxWT2RsSnNWVEJOU0ZadllWZEtTRk5YWXhBQqoBVAoJL20vMDFyZnBzEAEqDCIIcGhhcm1hY3koADIfEAEiG1eqC-8_WIEIksPkWWqH2wKEeYGhj48-2ExUrjIWEAIiEnBoYXJtYWN5IGluIHF1ZWVuc-ABAPoBBAgAECw!16s%2Fg%2F11gc22m6cw?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>2025-09-24 14:27:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Expert Pharmacy</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>107-02 Jamaica Ave, Richmond Hill, NY 11418, United States</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>+1 718-850-1100</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Expert+Pharmacy/@40.6953025,-73.9124272,13z/data=!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c2675534dfb80b:0xd6a12556f7fb0f36!8m2!3d40.6953025!4d-73.8403294!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTnlNa2x5Y2xsbkVBRaoBVAoJL20vMDFyZnBzEAEqDCIIcGhhcm1hY3koADIfEAEiG1eqC-8_WIEIksPkWWqH2wKEeYGhj48-2ExUrjIWEAIiEnBoYXJtYWN5IGluIHF1ZWVuc-ABAPoBBQiLARBF!16s%2Fg%2F11g9kc7nh3?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>2025-09-24 14:28:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Expert Pharmacy</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>107-02 Jamaica Ave, Richmond Hill, NY 11418, United States</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>+1 718-850-1100</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Expert+Pharmacy/@40.6953025,-73.9124272,13z/data=!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c2675534dfb80b:0xd6a12556f7fb0f36!8m2!3d40.6953025!4d-73.8403294!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTnlNa2x5Y2xsbkVBRaoBVAoJL20vMDFyZnBzEAEqDCIIcGhhcm1hY3koADIfEAEiG1eqC-8_WIEIksPkWWqH2wKEeYGhj48-2ExUrjIWEAIiEnBoYXJtYWN5IGluIHF1ZWVuc-ABAPoBBQiLARBF!16s%2Fg%2F11g9kc7nh3?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>2025-09-24 14:29:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Expert Pharmacy</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>107-02 Jamaica Ave, Richmond Hill, NY 11418, United States</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>+1 718-850-1100</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Expert+Pharmacy/@40.6953025,-73.9124272,13z/data=!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c2675534dfb80b:0xd6a12556f7fb0f36!8m2!3d40.6953025!4d-73.8403294!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTnlNa2x5Y2xsbkVBRaoBVAoJL20vMDFyZnBzEAEqDCIIcGhhcm1hY3koADIfEAEiG1eqC-8_WIEIksPkWWqH2wKEeYGhj48-2ExUrjIWEAIiEnBoYXJtYWN5IGluIHF1ZWVuc-ABAPoBBQiLARBF!16s%2Fg%2F11g9kc7nh3?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>2025-09-24 14:29:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Capital Drugs</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>109-19 72ND ROAD COM # 2, Forest Hills, NY 11375, United States</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>+1 718-268-1900</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/MB+Pharmacy+%26+Surgical/@40.6953025,-73.9124272,13z/data=!3m1!5s0x89c2609903fb4ab1:0xa3ffa8b006c62a8!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c2609f00000001:0xacdcaaa4859e23d4!8m2!3d40.7167457!4d-73.833542!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTnRNVXgyZW5oblJSQUKqAVQKCS9tLzAxcmZwcxABKgwiCHBoYXJtYWN5KAAyHxABIhtXqgvvP1iBCJLD5Flqh9sChHmBoY-PPthMVK4yFhACIhJwaGFybWFjeSBpbiBxdWVlbnPgAQD6AQQIGhBA!16s%2Fg%2F11f5pyh5hs?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>2025-09-24 14:38:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/MB+Pharmacy+%26+Surgical/@40.6953025,-73.9124272,13z/data=!3m1!5s0x89c2609903fb4ab1:0xa3ffa8b006c62a8!4m13!1m3!2m2!1spharmacy+in+queens!6e2!3m8!1s0x89c2609f00000001:0xacdcaaa4859e23d4!8m2!3d40.7167457!4d-73.833542!9m1!1b1!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTnRNVXgyZW5oblJSQUKqAVQKCS9tLzAxcmZwcxABKgwiCHBoYXJtYWN5KAAyHxABIhtXqgvvP1iBCJLD5Flqh9sChHmBoY-PPthMVK4yFhACIhJwaGFybWFjeSBpbiBxdWVlbnPgAQD6AQQIGhBA!16s%2Fg%2F11f5pyh5hs?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>2025-09-24 14:39:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/MB+Pharmacy+%26+Surgical/@40.6953025,-73.9124272,13z/data=!3m1!5s0x89c2609903fb4ab1:0xa3ffa8b006c62a8!4m13!1m3!2m2!1spharmacy+in+queens!6e2!3m8!1s0x89c2609f00000001:0xacdcaaa4859e23d4!8m2!3d40.7167457!4d-73.833542!9m1!1b1!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTnRNVXgyZW5oblJSQUKqAVQKCS9tLzAxcmZwcxABKgwiCHBoYXJtYWN5KAAyHxABIhtXqgvvP1iBCJLD5Flqh9sChHmBoY-PPthMVK4yFhACIhJwaGFybWFjeSBpbiBxdWVlbnPgAQD6AQQIGhBA!16s%2Fg%2F11f5pyh5hs?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>2025-09-24 14:40:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>http://www.cassonpharmacy.com/</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Casson+Pharmacy/@40.6953025,-73.9124272,13z/data=!3m1!5s0x89c2609903fb4ab1:0xa3ffa8b006c62a8!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c263dc722d173b:0xb787c5aa8a366882!8m2!3d40.7050484!4d-73.7401463!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUjJMVFJ4VDE5M1JSQUKqAVQKCS9tLzAxcmZwcxABKgwiCHBoYXJtYWN5KAAyHxABIhtXqgvvP1iBCJLD5Flqh9sChHmBoY-PPthMVK4yFhACIhJwaGFybWFjeSBpbiBxdWVlbnPgAQD6AQQIABAz!16s%2Fg%2F1tlvqg3s?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>2025-09-24 14:41:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>The Pharmacy of Queens</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>68-22 Fresh Meadow Ln, Fresh Meadows, NY 11365, United States</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>+1 212-372-7478</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>https://thepharmacyqueens.com/</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/The+Pharmacy+of+Queens/@40.7050484,-73.8122441,13z/data=!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c26126e085a0d7:0xcf397948a5987fe8!8m2!3d40.7329709!4d-73.7946563!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTXhjMDFEYm5GQlJSQUKqAVQKCS9tLzAxcmZwcxABKgwiCHBoYXJtYWN5KAAyHxABIhtXqgvvP1iBCJLD5Flqh9sChHmBoY-PPthMVK4yFhACIhJwaGFybWFjeSBpbiBxdWVlbnPgAQD6AQQIABAX!16s%2Fg%2F11y2cgj3qh?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>2025-09-24 14:41:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Northern Pharmacy (노던약국)</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>164-16 Northern Blvd, Flushing, NY 11358, United States</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>+1 718-445-2470</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>http://www.northernpharmacy.us/</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Northern+Pharmacy+(%EB%85%B8%EB%8D%98%EC%95%BD%EA%B5%AD)/@40.7329709,-73.8667541,13z/data=!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c2602e58fed8d5:0xd1f2f528a468883d!8m2!3d40.7603015!4d-73.8016342!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUlVjRXBZUTNKblJSQUKqAVQKCS9tLzAxcmZwcxABKgwiCHBoYXJtYWN5KAAyHxABIhtXqgvvP1iBCJLD5Flqh9sChHmBoY-PPthMVK4yFhACIhJwaGFybWFjeSBpbiBxdWVlbnPgAQD6AQQIABBF!16s%2Fg%2F1tgw5yxf?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>2025-09-24 14:41:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Primary Care Pharmacy</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>90-20 Sutphin Blvd, Jamaica, NY 11435, United States</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>+1 718-291-4747</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>http://www.primarycareny.com/</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Primary+Care+Pharmacy/@40.7329709,-73.8667541,13z/data=!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c260c510ad1ccf:0x4be38a0d21db413!8m2!3d40.702396!4d-73.808443!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUnRNR00yYzJabkVBRaoBVAoJL20vMDFyZnBzEAEqDCIIcGhhcm1hY3koADIfEAEiG1eqC-8_WIEIksPkWWqH2wKEeYGhj48-2ExUrjIWEAIiEnBoYXJtYWN5IGluIHF1ZWVuc-ABAPoBBAgAEDc!16s%2Fg%2F12610whng?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>2025-09-24 14:42:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>146-14 Jamaica Ave, Jamaica, NY 11435, United States</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>+1 718-297-0099</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>https://www.mygnp.com/pharmacies/queens-drugs-surgical-jamaica-ny-11435/</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Queens+Drugs+%26+Surgical/@40.702396,-73.8805408,13z/data=!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c260c56b93e153:0x9746edcba4387d15!8m2!3d40.7016576!4d-73.8084395!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTllPVjltV21aQkVBRaoBVAoJL20vMDFyZnBzEAEqDCIIcGhhcm1hY3koADIfEAEiG1eqC-8_WIEIksPkWWqH2wKEeYGhj48-2ExUrjIWEAIiEnBoYXJtYWN5IGluIHF1ZWVuc-ABAPoBBAgAEEg!16s%2Fg%2F1tmbx0sq?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>2025-09-24 14:42:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Walgreens Pharmacy</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>93-12 Astoria Blvd, East Elmhurst, NY 11369, United States</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>+1 718-426-3455</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>https://www.walgreens.com/locator/walgreens-9312+astoria+blvd-east+elmhurst-ny-11369/id=4058</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Walgreens+Pharmacy/@40.702396,-73.8805408,13z/data=!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c25f976db38ec1:0xf1bdef93b1e8e04d!8m2!3d40.7628394!4d-73.8756852!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTTFORFZwT1RWQlJSQUKqAVQKCS9tLzAxcmZwcxABKgwiCHBoYXJtYWN5KAAyHxABIhtXqgvvP1iBCJLD5Flqh9sChHmBoY-PPthMVK4yFhACIhJwaGFybWFjeSBpbiBxdWVlbnPgAQD6AQQIABAt!16s%2Fg%2F11cn958f8k?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>2025-09-24 14:43:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Walgreens+Pharmacy/@40.702396,-73.8805408,13z/data=!4m12!1m3!2m2!1spharmacy+in+queens!6e2!3m7!1s0x89c25f976db38ec1:0xf1bdef93b1e8e04d!8m2!3d40.7628394!4d-73.8756852!10e1!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTTFORFZwT1RWQlJSQUKqAVQKCS9tLzAxcmZwcxABKgwiCHBoYXJtYWN5KAAyHxABIhtXqgvvP1iBCJLD5Flqh9sChHmBoY-PPthMVK4yFhACIhJwaGFybWFjeSBpbiBxdWVlbnPgAQD6AQQIABAt!16s%2Fg%2F11cn958f8k?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>2025-09-24 14:44:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>County Pharmacy</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>220-08 Hempstead Ave, Queens Village, NY 11429, United States</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>http://reo-chemist-inc.jany.io/</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/County+Pharmacy/@40.712518,-73.8059178,13z/data=!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c263ce4fd65197:0xefb54fb45baf0223!8m2!3d40.712518!4d-73.73382!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maAURDaTlEUVVsUlFVTnZaRU5vZEhsalJqbHZUMnRqTWxSRVJURmhiR04wVlZaS1RFNUhlSHBWUmtwVFlXeHdiV05YWXhBQqoBVAoJL20vMDFyZnBzEAEqDCIIcGhhcm1hY3koADIfEAEiG1eqC-8_WIEIksPkWWqH2wKEeYGhj48-2ExUrjIWEAIiEnBoYXJtYWN5IGluIHF1ZWVuc-ABAPoBBAgrEDo!16s%2Fg%2F1tl1jtnq?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>2025-09-24 14:44:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Reo+Chemist+Inc/@40.7091937,-73.902366,13z/data=!4m13!1m3!2m2!1spharmacy+in+queens!6e2!3m8!1s0x89c260bcb1769665:0x9a1982878ad2e810!8m2!3d40.7091937!4d-73.8302682!9m1!1b1!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTnFORnBJYnpOUlJSQUKqAVQKCS9tLzAxcmZwcxABKgwiCHBoYXJtYWN5KAAyHxABIhtXqgvvP1iBCJLD5Flqh9sChHmBoY-PPthMVK4yFhACIhJwaGFybWFjeSBpbiBxdWVlbnPgAQD6AQQIXRAx!16s%2Fg%2F1hhh1w67d?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>2025-09-24 14:45:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>3.1</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>104-26 Roosevelt Ave, Flushing, NY 11368, United States</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>+1 718-533-0991</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Queens+Midnight+Pharmacy/@40.75002,-73.9327333,13z/data=!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c25fc6623be21f:0xcfa2aac1e55cdaf2!8m2!3d40.75002!4d-73.8606355!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUnVNWE5NWVhoM1JSQUKqAVQKCS9tLzAxcmZwcxABKgwiCHBoYXJtYWN5KAAyHxABIhtXqgvvP1iBCJLD5Flqh9sChHmBoY-PPthMVK4yFhACIhJwaGFybWFjeSBpbiBxdWVlbnPgAQD6AQUIlwMQQg!16s%2Fg%2F1tj2jtnt?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>2025-09-24 14:46:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Queens+Midnight+Pharmacy/@40.75002,-73.9327333,13z/data=!4m13!1m3!2m2!1spharmacy+in+queens!6e2!3m8!1s0x89c25fc6623be21f:0xcfa2aac1e55cdaf2!8m2!3d40.75002!4d-73.8606355!9m1!1b1!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUnVNWE5NWVhoM1JSQUKqAVQKCS9tLzAxcmZwcxABKgwiCHBoYXJtYWN5KAAyHxABIhtXqgvvP1iBCJLD5Flqh9sChHmBoY-PPthMVK4yFhACIhJwaGFybWFjeSBpbiBxdWVlbnPgAQD6AQUIlwMQQg!16s%2Fg%2F1tj2jtnt?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>2025-09-24 14:47:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Flushing Family Pharmacy, LLC</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>43-67 147th St, Flushing, NY 11355, United States</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>+1 718-888-1108</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Flushing+Family+Pharmacy,+LLC/@40.7557158,-73.8872335,13z/data=!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c2603e818a9c11:0xb54968713bd50036!8m2!3d40.7557158!4d-73.8151357!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUndYemx0UVU1UkVBRaoBVAoJL20vMDFyZnBzEAEqDCIIcGhhcm1hY3koADIfEAEiG1eqC-8_WIEIksPkWWqH2wKEeYGhj48-2ExUrjIWEAIiEnBoYXJtYWN5IGluIHF1ZWVuc-ABAPoBBAgAEBg!16s%2Fg%2F11b609wl72?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>2025-09-24 14:48:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Walgreens Pharmacy</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2.8</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>73-21 Kissena Blvd, Flushing, NY 11367, United States</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>+1 718-263-2918</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>https://www.walgreens.com/locator/walgreens-7321+kissena+blvd-flushing-ny-11367/id=11126</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Walgreens+Pharmacy/@40.7557158,-73.8872335,13z/data=!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c260f695151a5f:0x53906fe996327d6c!8m2!3d40.7269381!4d-73.8111412!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maAURDaTlEUVVsUlFVTnZaRU5vZEhsalJqbHZUMnQwU2xwSFJtbGlWRlkyVjBkYVdsUlVhRVZWYlhScVVWZG9VV0ZZWXhBQqoBVAoJL20vMDFyZnBzEAEqDCIIcGhhcm1hY3koADIfEAEiG1eqC-8_WIEIksPkWWqH2wKEeYGhj48-2ExUrjIWEAIiEnBoYXJtYWN5IGluIHF1ZWVuc-ABAPoBBAgAEDM!16s%2Fg%2F11cn96v0hd?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>2025-09-24 14:48:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>B &amp; B Pharmacy</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>79-08 37th Ave, Jackson Heights, NY 11372, United States</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>+1 718-533-6623</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>http://www.bnbpharm.com/</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/B+%26+B+Pharmacy/@40.7557158,-73.8872335,13z/data=!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c25fa8f451fed3:0xd838c1631c0f3aec!8m2!3d40.749354!4d-73.8867249!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUnBkWE5pTTNKM1JSQUKqAVQKCS9tLzAxcmZwcxABKgwiCHBoYXJtYWN5KAAyHxABIhtXqgvvP1iBCJLD5Flqh9sChHmBoY-PPthMVK4yFhACIhJwaGFybWFjeSBpbiBxdWVlbnPgAQD6AQUIhAMQNA!16s%2Fg%2F1w2y_cfk?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>2025-09-24 14:48:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>B &amp; B Pharmacy</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>79-08 37th Ave, Jackson Heights, NY 11372, United States</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>+1 718-847-9850</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>https://www.mygnp.com/pharmacies/triangle-pharmacy-richmond-hill-ny-11418/?utm_source=google&amp;utm_medium=local&amp;utm_campaign=localmaps&amp;utm_content=3330418</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Triangle+Pharmacy/@40.749354,-73.9588227,13z/data=!3m1!5s0x89c25fa8505e1033:0xcbce81a6d4a68e26!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c260ae233aba6d:0x5a61d69881be9275!8m2!3d40.7001814!4d-73.8308588!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTlllVnBMTUVGUkVBRaoBVAoJL20vMDFyZnBzEAEqDCIIcGhhcm1hY3koADIfEAEiG1eqC-8_WIEIksPkWWqH2wKEeYGhj48-2ExUrjIWEAIiEnBoYXJtYWN5IGluIHF1ZWVuc-ABAPoBBAgiEDU!16s%2Fg%2F1ttdzcd5?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>2025-09-24 14:49:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Triangle Pharmacy</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>119-01 Jamaica Ave, Richmond Hill, NY 11418, United States</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>https://www.walgreens.com/locator/walgreens-6962+188th+st-fresh+meadows-ny-11365/id=19453</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Triangle+Pharmacy/@40.7001814,-73.9029566,13z/data=!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c260ae233aba6d:0x5a61d69881be9275!8m2!3d40.7001814!4d-73.8308588!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTlllVnBMTUVGUkVBRaoBVAoJL20vMDFyZnBzEAEqDCIIcGhhcm1hY3koADIfEAEiG1eqC-8_WIEIksPkWWqH2wKEeYGhj48-2ExUrjIWEAIiEnBoYXJtYWN5IGluIHF1ZWVuc-ABAPoBBAgiEDU!16s%2Fg%2F1ttdzcd5?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>2025-09-24 14:49:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Amaya Health - Pharmacy</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>140-75 Ash Ave Suite 2C, Flushing, NY 11355, United States</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>+1 888-250-8989</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Amaya+Health+-+Pharmacy/@40.7563492,-73.8942232,13z/data=!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c2610b7846ef27:0x856d0b5588aca896!8m2!3d40.7563492!4d-73.8221254!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTlhhSEJ5TFhkblJSQUKqAVQKCS9tLzAxcmZwcxABKgwiCHBoYXJtYWN5KAAyHxABIhtXqgvvP1iBCJLD5Flqh9sChHmBoY-PPthMVK4yFhACIhJwaGFybWFjeSBpbiBxdWVlbnPgAQD6AQUI2AIQHA!16s%2Fg%2F11qrsm54y3?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>2025-09-24 14:50:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>My Family Pharmacy</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>82-15 Northern Blvd, Jackson Heights, NY 11372, United States</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>+1 718-440-9201</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>http://myfamilypharmacyny.com/</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/My+Family+Pharmacy/@40.7563492,-73.8942232,13z/data=!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c2600f8497f405:0x8bc91bc219703840!8m2!3d40.7558463!4d-73.8847717!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTkNYMlJmUm01QlJSQUKqAVQKCS9tLzAxcmZwcxABKgwiCHBoYXJtYWN5KAAyHxABIhtXqgvvP1iBCJLD5Flqh9sChHmBoY-PPthMVK4yFhACIhJwaGFybWFjeSBpbiBxdWVlbnPgAQD6AQQIABBD!16s%2Fg%2F11c5647kn_?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>2025-09-24 14:50:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>New York Blvd Pharmacy</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>107-45 Guy R Brewer Blvd, Jamaica, NY 11433, United States</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>+1 718-297-6500</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/New+York+Blvd+Pharmacy/@40.6971015,-73.8633829,13z/data=!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c261288dc335f3:0x8129d79fd650a6af!8m2!3d40.6971015!4d-73.7912851!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUXlkR1ZMVG0xQlJSQUKqAVQKCS9tLzAxcmZwcxABKgwiCHBoYXJtYWN5KAAyHxABIhtXqgvvP1iBCJLD5Flqh9sChHmBoY-PPthMVK4yFhACIhJwaGFybWFjeSBpbiBxdWVlbnPgAQD6AQQIABAn!16s%2Fg%2F1vspsdyf?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>2025-09-24 14:51:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Bayside Pharmacy - 베이사이드 약국</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>221-36 Horace Harding Expy, Oakland Gardens, NY 11364, United States</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>+1 718-224-1234</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>http://www.baysidepharmacy.com/</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bayside+Pharmacy+-+%EB%B2%A0%EC%9D%B4%EC%82%AC%EC%9D%B4%EB%93%9C+%EC%95%BD%EA%B5%AD/@40.6971015,-73.8633829,13z/data=!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c261f118930417:0x15fd9edf8eb8a4a4!8m2!3d40.749268!4d-73.755223!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTkhMVFZsVUhsQlJSQUKqAVQKCS9tLzAxcmZwcxABKgwiCHBoYXJtYWN5KAAyHxABIhtXqgvvP1iBCJLD5Flqh9sChHmBoY-PPthMVK4yFhACIhJwaGFybWFjeSBpbiBxdWVlbnPgAQD6AQUI5QEQRg!16s%2Fg%2F11cn92g2b8?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>2025-09-24 14:51:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Briarwood Drugs</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>138-44 Queens Blvd #1b, Briarwood, NY 11435, United States</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>+1 929-244-7805</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/briarwooddrugs/</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Briarwood+Drugs/@40.749268,-73.8273208,13z/data=!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c261b7e73dfee3:0x4de3b092fb794de8!8m2!3d40.7076696!4d-73.8180607!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTm9OblV0VTNCQlJSQUKqAVQKCS9tLzAxcmZwcxABKgwiCHBoYXJtYWN5KAAyHxABIhtXqgvvP1iBCJLD5Flqh9sChHmBoY-PPthMVK4yFhACIhJwaGFybWFjeSBpbiBxdWVlbnPgAQD6AQQIABA8!16s%2Fg%2F11pdz_mmrs?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>2025-09-24 14:51:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Skycare Pharmacy Inc.</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>85-29 Grand Ave, Elmhurst, NY 11373, United States</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>+1 718-685-2678</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Skycare+Pharmacy+Inc./@40.7355485,-73.9534771,13z/data=!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c25e5161af2d4b:0x33c85b2a91763d2c!8m2!3d40.7355485!4d-73.8813793!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTmZiRGxUWjNOM1JSQUKqAVQKCS9tLzAxcmZwcxABKgwiCHBoYXJtYWN5KAAyHxABIhtXqgvvP1iBCJLD5Flqh9sChHmBoY-PPthMVK4yFhACIhJwaGFybWFjeSBpbiBxdWVlbnPgAQD6AQQIABAu!16s%2Fg%2F11gglt7hhx?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>2025-09-24 14:52:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Al-Mamoor Pharmacy INC.</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>169-18 Hillside Ave., Jamaica, NY 11432, United States</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>+1 718-374-3406</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>http://almamoorpharmacy.com/</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Al-Mamoor+Pharmacy+INC./@40.7355485,-73.9534771,13z/data=!3m1!5s0x89c2611e530aba2b:0xaca75cb85a79fd28!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c2611e535af015:0x89c4ec53be9ed3c8!8m2!3d40.7107171!4d-73.7923354!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUXlhSEpRUTBWUkVBRaoBVAoJL20vMDFyZnBzEAEqDCIIcGhhcm1hY3koADIfEAEiG1eqC-8_WIEIksPkWWqH2wKEeYGhj48-2ExUrjIWEAIiEnBoYXJtYWN5IGluIHF1ZWVuc-ABAPoBBAhQEEw!16s%2Fg%2F12605_ttm?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>2025-09-24 14:52:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Sunrise Pharmacy</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>111-21 Jamaica Ave, Richmond Hill, NY 11418, United States</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>+1 718-441-1426</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Sunrise+Pharmacy/@40.6973575,-73.9088041,13z/data=!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c261a91225644b:0xb6cba9f011be4d9!8m2!3d40.6973575!4d-73.8367063!15sChJwaGFybWFjeSBpbiBxdWVlbnOSAQhwaGFybWFjeaoBVAoJL20vMDFyZnBzEAEqDCIIcGhhcm1hY3koADIfEAEiG1eqC-8_WIEIksPkWWqH2wKEeYGhj48-2ExUrjIWEAIiEnBoYXJtYWN5IGluIHF1ZWVuc-ABAA!16s%2Fg%2F11l2d9000h?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>2025-09-24 14:53:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>New York Flushing Pharmacy</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>157-10 Northern Blvd, Flushing, NY 11354, United States</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>+1 718-461-7200</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/New+York+Flushing+Pharmacy/@40.7635189,-73.8799779,13z/data=!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c26025ea390a03:0x45f4c2a936d8b141!8m2!3d40.7635189!4d-73.8078801!15sChJwaGFybWFjeSBpbiBxdWVlbnOSAQhwaGFybWFjeaoBVAoJL20vMDFyZnBzEAEqDCIIcGhhcm1hY3koADIfEAEiG1eqC-8_WIEIksPkWWqH2wKEeYGhj48-2ExUrjIWEAIiEnBoYXJtYWN5IGluIHF1ZWVuc-ABAA!16s%2Fg%2F11bxfxrm7q?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>2025-09-24 14:53:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>New York Flushing Pharmacy</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>157-10 Northern Blvd, Flushing, NY 11354, United States</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>+1 718-461-7200</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/New+York+Flushing+Pharmacy/@40.7635189,-73.8799779,13z/data=!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c26025ea390a03:0x45f4c2a936d8b141!8m2!3d40.7635189!4d-73.8078801!15sChJwaGFybWFjeSBpbiBxdWVlbnOSAQhwaGFybWFjeaoBVAoJL20vMDFyZnBzEAEqDCIIcGhhcm1hY3koADIfEAEiG1eqC-8_WIEIksPkWWqH2wKEeYGhj48-2ExUrjIWEAIiEnBoYXJtYWN5IGluIHF1ZWVuc-ABAA!16s%2Fg%2F11bxfxrm7q?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>2025-09-24 14:54:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Queens Community Express Pharmacy</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>3.3</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>168-12 Hillside Ave., Jamaica, NY 11432, United States</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>+1 718-206-9096</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/VNS+Pharmacy/@40.7282867,-73.9358407,13z/data=!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c25e3789f079a9:0xb56326324dc51375!8m2!3d40.7282867!4d-73.8637429!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUlNjelZsWlZCM0VBRaoBVAoJL20vMDFyZnBzEAEqDCIIcGhhcm1hY3koADIfEAEiG1eqC-8_WIEIksPkWWqH2wKEeYGhj48-2ExUrjIWEAIiEnBoYXJtYWN5IGluIHF1ZWVuc-ABAPoBBAgAEBc!16s%2Fg%2F11b66k5vgk?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>2025-09-24 14:56:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Walgreens Pharmacy</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>95-11 63rd Dr, Rego Park, NY 11374, United States</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>+1 718-897-0803</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>https://www.walgreens.com/</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Walgreens+Pharmacy/@40.7282867,-73.9358407,13z/data=!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c25e37a6eb5939:0x90929e7c3b572419!8m2!3d40.7297207!4d-73.8627608!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3mqAVQKCS9tLzAxcmZwcxABKgwiCHBoYXJtYWN5KAAyHxABIhtXqgvvP1iBCJLD5Flqh9sChHmBoY-PPthMVK4yFhACIhJwaGFybWFjeSBpbiBxdWVlbnPgAQA!16s%2Fg%2F11r3sn226l?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>2025-09-24 14:56:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>SHOP N SAVE PHARMACY INC</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>72-06 Main St, Kew Gardens Hills, NY 11367, United States</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>+1 718-674-6220</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SHOP+N+SAVE+PHARMACY+INC/@40.7263852,-73.8940192,13z/data=!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c2619078fbc113:0xb12629ac93aaa785!8m2!3d40.7263852!4d-73.8219214!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUklNbUZ0VXpOUlJSQUKqAVQKCS9tLzAxcmZwcxABKgwiCHBoYXJtYWN5KAAyHxABIhtXqgvvP1iBCJLD5Flqh9sChHmBoY-PPthMVK4yFhACIhJwaGFybWFjeSBpbiBxdWVlbnPgAQD6AQQIABBF!16s%2Fg%2F11n0t62bvm?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>2025-09-24 14:57:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>CVS Pharmacy</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>85-29 126th St, Kew Gardens, NY 11415, United States</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>+1 718-850-5811</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>https://www.cvs.com/store-locator/kew-gardens-ny-pharmacies/85-29-126th-street-corner-of-hillside-avenue-kew-gardens-ny-11415/storeid=2062?WT.mc_id=LS_GOOGLE_RX_2062</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/CVS+Pharmacy/@40.7263852,-73.8940192,13z/data=!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c260ba1b832985:0xa0e019b10b1aa52b!8m2!3d40.7035393!4d-73.8248141!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTXRhalpRYVRsblJSQUKqAVQKCS9tLzAxcmZwcxABKgwiCHBoYXJtYWN5KAAyHxABIhtXqgvvP1iBCJLD5Flqh9sChHmBoY-PPthMVK4yFhACIhJwaGFybWFjeSBpbiBxdWVlbnPgAQD6AQQIABA_!16s%2Fg%2F11c463qfp1?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>2025-09-24 14:57:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>NOVA Q-Health : NOVA Pharmacy Queens</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>104-01 Northern Blvd, Queens, NY 11368, United States</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>+1 646-809-9595</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>http://www.novapharmacy.store/</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/NOVA+Q-Health+:+NOVA+Pharmacy+Queens/@40.7263852,-73.8940192,13z/data=!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c25f2817c60edd:0xee7dfbbf96f726a9!8m2!3d40.7578503!4d-73.8645167!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUjRhRGxpUVdkM1JSQUKqAVQKCS9tLzAxcmZwcxABKgwiCHBoYXJtYWN5KAAyHxABIhtXqgvvP1iBCJLD5Flqh9sChHmBoY-PPthMVK4yFhACIhJwaGFybWFjeSBpbiBxdWVlbnPgAQD6AQQIJRAm!16s%2Fg%2F11rgg7wymd?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>2025-09-24 14:57:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Walgreens Pharmacy</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>96-02 Rockaway Blvd, Ozone Park, NY 11417, United States</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>+1 718-848-2334</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>https://www.walgreens.com/locator/walgreens-9602+rockaway+blvd-ozone+park-ny-11417/id=18412</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Walgreens+Pharmacy/@40.7578503,-73.9366145,13z/data=!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c25dead45e1755:0xbdede56da04e679d!8m2!3d40.6801415!4d-73.8422176!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUmZYMHMyTFdOQkVBRaoBVAoJL20vMDFyZnBzEAEqDCIIcGhhcm1hY3koADIfEAEiG1eqC-8_WIEIksPkWWqH2wKEeYGhj48-2ExUrjIWEAIiEnBoYXJtYWN5IGluIHF1ZWVuc-ABAPoBBAgAEDE!16s%2Fg%2F1td9rfr8?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>2025-09-24 14:57:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Forest Hills Chemists - Pharmacy</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>112-14 Queens Blvd, Forest Hills, NY 11375, United States</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Forest+Hills+Chemists+-+Pharmacy/@40.6801415,-73.9143154,13z/data=!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c261686aec8f49:0x31927e53e4f80ed5!8m2!3d40.7176838!4d-73.8366217!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3mqAVQKCS9tLzAxcmZwcxABKgwiCHBoYXJtYWN5KAAyHxABIhtXqgvvP1iBCJLD5Flqh9sChHmBoY-PPthMVK4yFhACIhJwaGFybWFjeSBpbiBxdWVlbnPgAQA!16s%2Fg%2F11fhyp3hkn?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>2025-09-24 14:58:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Junction Blvd Pharmacy</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>95-53 Roosevelt Ave, Flushing, NY 11372, United States</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>+1 718-396-4030</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Junction+Blvd+Pharmacy/@40.7492616,-73.9420634,13z/data=!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c25fb9e6e4ff69:0xcd437667780743da!8m2!3d40.7492616!4d-73.8699656!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASRDaGREU1VoTk1HOW5TMFZKUTBGblRVTlpNa3BVU1doblJSQUKqAVQKCS9tLzAxcmZwcxABKgwiCHBoYXJtYWN5KAAyHxABIhtXqgvvP1iBCJLD5Flqh9sChHmBoY-PPthMVK4yFhACIhJwaGFybWFjeSBpbiBxdWVlbnPgAQD6AQQIABAx!16s%2Fg%2F1tg2ll9l?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>2025-09-24 14:58:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>HOLLIS PHARMACY</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>188-06 Jamaica Ave # A, Jamaica, NY 11423, United States</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>+1 718-776-8505</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/HOLLIS+PHARMACY/@40.7106932,-73.842617,13z/data=!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c2616cbeab73f3:0x4402398536a75454!8m2!3d40.7106932!4d-73.7705192!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTktiM0IyVkd4QlJSQUKqAVQKCS9tLzAxcmZwcxABKgwiCHBoYXJtYWN5KAAyHxABIhtXqgvvP1iBCJLD5Flqh9sChHmBoY-PPthMVK4yFhACIhJwaGFybWFjeSBpbiBxdWVlbnPgAQD6AQUIiAEQFg!16s%2Fg%2F1vj603pp?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>2025-09-24 14:59:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Manson Pharmacy</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>3.1</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>137-69 Queens Blvd, Jamaica, NY 11435, United States</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>+1 718-297-4424</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Manson+Pharmacy/@40.7092812,-73.8907694,13z/data=!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c260bf7e979343:0x39e175da12da3394!8m2!3d40.7092812!4d-73.8186716!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maAURDaTlEUVVsUlFVTnZaRU5vZEhsalJqbHZUMnhrU0ZkWFZrOU9NblJvWlZVeGFWSjZiRWxXUjNCcVlucFdjVTFyUlJBQqoBVAoJL20vMDFyZnBzEAEqDCIIcGhhcm1hY3koADIfEAEiG1eqC-8_WIEIksPkWWqH2wKEeYGhj48-2ExUrjIWEAIiEnBoYXJtYWN5IGluIHF1ZWVuc-ABAPoBBAgAEDs!16s%2Fg%2F1tdy9_66?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>2025-09-24 15:00:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>New Town Pharmacy</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>86 Justice Ave #15, Elmhurst, NY 11373, United States</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>+1 718-760-2600</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/New+Town+Pharmacy/@40.7377774,-73.9486113,13z/data=!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c25e4d784aa0c9:0x297eefe5d0456450!8m2!3d40.7377774!4d-73.8765135!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUlhhRFZZUTFOM0VBRaoBVAoJL20vMDFyZnBzEAEqDCIIcGhhcm1hY3koADIfEAEiG1eqC-8_WIEIksPkWWqH2wKEeYGhj48-2ExUrjIWEAIiEnBoYXJtYWN5IGluIHF1ZWVuc-ABAPoBBAgAEAw!16s%2Fg%2F11bw4mtz65?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>2025-09-24 15:00:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Junction Blvd Pharmacy</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>95-53 Roosevelt Ave, Flushing, NY 11372, United States</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>+1 718-396-4030</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Junction+Blvd+Pharmacy/@40.7377774,-73.9486113,13z/data=!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c25fb9e6e4ff69:0xcd437667780743da!8m2!3d40.7492616!4d-73.8699656!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASRDaGREU1VoTk1HOW5TMFZKUTBGblRVTlpNa3BVU1doblJSQUKqAVQKCS9tLzAxcmZwcxABKgwiCHBoYXJtYWN5KAAyHxABIhtXqgvvP1iBCJLD5Flqh9sChHmBoY-PPthMVK4yFhACIhJwaGFybWFjeSBpbiBxdWVlbnPgAQD6AQQIABAx!16s%2Fg%2F1tg2ll9l?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>2025-09-24 15:01:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>HOLLIS PHARMACY</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>188-06 Jamaica Ave # A, Jamaica, NY 11423, United States</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>+1 718-776-8505</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/HOLLIS+PHARMACY/@40.7106932,-73.842617,13z/data=!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c2616cbeab73f3:0x4402398536a75454!8m2!3d40.7106932!4d-73.7705192!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTktiM0IyVkd4QlJSQUKqAVQKCS9tLzAxcmZwcxABKgwiCHBoYXJtYWN5KAAyHxABIhtXqgvvP1iBCJLD5Flqh9sChHmBoY-PPthMVK4yFhACIhJwaGFybWFjeSBpbiBxdWVlbnPgAQD6AQUIiAEQFg!16s%2Fg%2F1vj603pp?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>2025-09-24 15:01:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Manson Pharmacy</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>3.1</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>137-69 Queens Blvd, Jamaica, NY 11435, United States</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>+1 718-297-4424</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Manson+Pharmacy/@40.7092812,-73.8907694,13z/data=!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c260bf7e979343:0x39e175da12da3394!8m2!3d40.7092812!4d-73.8186716!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maAURDaTlEUVVsUlFVTnZaRU5vZEhsalJqbHZUMnhrU0ZkWFZrOU9NblJvWlZVeGFWSjZiRWxXUjNCcVlucFdjVTFyUlJBQqoBVAoJL20vMDFyZnBzEAEqDCIIcGhhcm1hY3koADIfEAEiG1eqC-8_WIEIksPkWWqH2wKEeYGhj48-2ExUrjIWEAIiEnBoYXJtYWN5IGluIHF1ZWVuc-ABAPoBBAgAEDs!16s%2Fg%2F1tdy9_66?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>2025-09-24 15:02:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Manson+Pharmacy/@40.7092812,-73.8907694,13z/data=!4m13!1m3!2m2!1spharmacy+in+queens!6e2!3m8!1s0x89c260bf7e979343:0x39e175da12da3394!8m2!3d40.7092812!4d-73.8186716!9m1!1b1!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maAURDaTlEUVVsUlFVTnZaRU5vZEhsalJqbHZUMnhrU0ZkWFZrOU9NblJvWlZVeGFWSjZiRWxXUjNCcVlucFdjVTFyUlJBQqoBVAoJL20vMDFyZnBzEAEqDCIIcGhhcm1hY3koADIfEAEiG1eqC-8_WIEIksPkWWqH2wKEeYGhj48-2ExUrjIWEAIiEnBoYXJtYWN5IGluIHF1ZWVuc-ABAPoBBAgAEDs!16s%2Fg%2F1tdy9_66?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>2025-09-24 15:03:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>84-04 Broadway, Flushing, NY 11373, United States</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>+1 718-457-7884</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>http://elmhurstdrugs.com/</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Elmhurst+Drugs/@40.7092812,-73.8907694,13z/data=!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c25e52b691a943:0x1496c0fecf60f0d6!8m2!3d40.7398236!4d-73.8785912!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTm1ialY1Y1dWQkVBRaoBVAoJL20vMDFyZnBzEAEqDCIIcGhhcm1hY3koADIfEAEiG1eqC-8_WIEIksPkWWqH2wKEeYGhj48-2ExUrjIWEAIiEnBoYXJtYWN5IGluIHF1ZWVuc-ABAPoBBAgAEC0!16s%2Fg%2F1tj2pcwg?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>2025-09-24 15:03:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Elmhurst Drugs</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>84-04 Broadway, Flushing, NY 11373, United States</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>+1 718-457-7884</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>http://elmhurstdrugs.com/</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Elmhurst+Drugs/@40.7398236,-73.950689,13z/data=!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c25e52b691a943:0x1496c0fecf60f0d6!8m2!3d40.7398236!4d-73.8785912!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTm1ialY1Y1dWQkVBRaoBVAoJL20vMDFyZnBzEAEqDCIIcGhhcm1hY3koADIfEAEiG1eqC-8_WIEIksPkWWqH2wKEeYGhj48-2ExUrjIWEAIiEnBoYXJtYWN5IGluIHF1ZWVuc-ABAPoBBAgAEC0!16s%2Fg%2F1tj2pcwg?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>2025-09-24 15:04:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Vital Med Pharmacy</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>69-42 Main St, Flushing, NY 11367, United States</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>+1 718-544-0700</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Vital+Med+Pharmacy/@40.7301987,-73.8959547,13z/data=!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c2608a2c04e2db:0x943da90bf5ee2040!8m2!3d40.7301987!4d-73.8238569!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maAURDaTlEUVVsUlFVTnZaRU5vZEhsalJqbHZUMnRrZFZrd1RscFZSVVozVWtVNVVXUXhTa2hVVkZvMlkwWldSVlZWUlJBQqoBVAoJL20vMDFyZnBzEAEqDCIIcGhhcm1hY3koADIfEAEiG1eqC-8_WIEIksPkWWqH2wKEeYGhj48-2ExUrjIWEAIiEnBoYXJtYWN5IGluIHF1ZWVuc-ABAPoBBAgAEEw!16s%2Fg%2F11cn9wvmdl?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>2025-09-24 15:05:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Vital Med Pharmacy</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>69-42 Main St, Flushing, NY 11367, United States</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>+1 718-544-0700</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Vital+Med+Pharmacy/@40.7301987,-73.8959547,13z/data=!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c2608a2c04e2db:0x943da90bf5ee2040!8m2!3d40.7301987!4d-73.8238569!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maAURDaTlEUVVsUlFVTnZaRU5vZEhsalJqbHZUMnRrZFZrd1RscFZSVVozVWtVNVVXUXhTa2hVVkZvMlkwWldSVlZWUlJBQqoBVAoJL20vMDFyZnBzEAEqDCIIcGhhcm1hY3koADIfEAEiG1eqC-8_WIEIksPkWWqH2wKEeYGhj48-2ExUrjIWEAIiEnBoYXJtYWN5IGluIHF1ZWVuc-ABAPoBBAgAEEw!16s%2Fg%2F11cn9wvmdl?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>2025-09-24 15:05:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Vital Med Pharmacy</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>69-42 Main St, Flushing, NY 11367, United States</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>+1 718-544-0700</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Vital+Med+Pharmacy/@40.7301987,-73.8959547,13z/data=!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c2608a2c04e2db:0x943da90bf5ee2040!8m2!3d40.7301987!4d-73.8238569!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maAURDaTlEUVVsUlFVTnZaRU5vZEhsalJqbHZUMnRrZFZrd1RscFZSVVozVWtVNVVXUXhTa2hVVkZvMlkwWldSVlZWUlJBQqoBVAoJL20vMDFyZnBzEAEqDCIIcGhhcm1hY3koADIfEAEiG1eqC-8_WIEIksPkWWqH2wKEeYGhj48-2ExUrjIWEAIiEnBoYXJtYWN5IGluIHF1ZWVuc-ABAPoBBAgAEEw!16s%2Fg%2F11cn9wvmdl?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>2025-09-24 15:06:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Hollis Drugs &amp; Surgicals</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>206-08 Hollis Ave, Queens Village, NY 11429, United States</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>+1 718-464-1556</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>http://www.hollispharmacyandnotary.com/</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Hollis+Drugs+%26+Surgicals/@40.7071686,-73.8227831,13z/data=!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c26163d353761d:0xd7e461a29c8dc57d!8m2!3d40.7071686!4d-73.7506853!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUktkRkJNY0hGM1JSQUKqAVQKCS9tLzAxcmZwcxABKgwiCHBoYXJtYWN5KAAyHxABIhtXqgvvP1iBCJLD5Flqh9sChHmBoY-PPthMVK4yFhACIhJwaGFybWFjeSBpbiBxdWVlbnPgAQD6AQQIdxAy!16s%2Fg%2F1tkkvt4l?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>2025-09-24 15:09:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Max Pharmacy</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>98-18 Astoria Blvd, East Elmhurst, NY 11369, United States</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>+1 718-406-9312</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Max+Pharmacy/@40.7071686,-73.8227831,13z/data=!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c25fe299e5e81d:0xc9d4cb624d872dd4!8m2!3d40.7619069!4d-73.8705661!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maAURDaTlEUVVsUlFVTnZaRU5vZEhsalJqbHZUMjFrZFZsdE9IcFZWVVpPVmxjNWNWRjZWbkpaVlZwMVlqSjRNbUZIWXhBQqoBVAoJL20vMDFyZnBzEAEqDCIIcGhhcm1hY3koADIfEAEiG1eqC-8_WIEIksPkWWqH2wKEeYGhj48-2ExUrjIWEAIiEnBoYXJtYWN5IGluIHF1ZWVuc-ABAPoBBAh9EDY!16s%2Fg%2F11y7dvcgjz?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>2025-09-24 15:10:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Max Pharmacy</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>98-18 Astoria Blvd, East Elmhurst, NY 11369, United States</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>+1 718-406-9312</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/J+%26+D+Pharmacy/@40.7619069,-73.9426639,13z/data=!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c25e3c945e7c63:0xed9c4e1f26fc84b1!8m2!3d40.7210091!4d-73.8553794!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUXhjalJYV1RGM1JSQUKqAVQKCS9tLzAxcmZwcxABKgwiCHBoYXJtYWN5KAAyHxABIhtXqgvvP1iBCJLD5Flqh9sChHmBoY-PPthMVK4yFhACIhJwaGFybWFjeSBpbiBxdWVlbnPgAQD6AQQIABA8!16s%2Fg%2F1vhklgjw?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>2025-09-24 15:10:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Frank's Pharmacy</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>77-01 37th Ave, Jackson Heights, NY 11372, United States</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>+1 718-899-2600</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Frank's+Pharmacy/@40.7494636,-73.9608839,13z/data=!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c25f07058d8487:0x564c6dcd00d13ad7!8m2!3d40.7494636!4d-73.8887861!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTTVlVjkxUTJ4UlJSQUKqAVQKCS9tLzAxcmZwcxABKgwiCHBoYXJtYWN5KAAyHxABIhtXqgvvP1iBCJLD5Flqh9sChHmBoY-PPthMVK4yFhACIhJwaGFybWFjeSBpbiBxdWVlbnPgAQD6AQQIABAx!16s%2Fg%2F1tfzsvd0?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>2025-09-24 15:11:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Good Faith Pharmacy LLC</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>115-11 Merrick Blvd, Queens, NY 11434, United States</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>+1 718-880-2355</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Good+Faith+Pharmacy+LLC/@40.6896386,-73.8494168,13z/data=!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c26172abcd4fbd:0xd1e3d247ddb80148!8m2!3d40.6896386!4d-73.777319!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUndYM0JVVEdaQkVBRaoBVAoJL20vMDFyZnBzEAEqDCIIcGhhcm1hY3koADIfEAEiG1eqC-8_WIEIksPkWWqH2wKEeYGhj48-2ExUrjIWEAIiEnBoYXJtYWN5IGluIHF1ZWVuc-ABAPoBBAgsEEY!16s%2Fg%2F11trr3nj59?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>2025-09-24 15:12:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Gulshan Pharmacy</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>73-21 Broadway, Jackson Heights, NY 11372, United States</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>+1 718-672-5500</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Gulshan+Pharmacy/@40.7470683,-73.9640746,13z/data=!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c25fcf2c16a0e9:0x578b6ddde102231!8m2!3d40.7470683!4d-73.8919768!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUkhielZMTTIxM1JSQUKqAVQKCS9tLzAxcmZwcxABKgwiCHBoYXJtYWN5KAAyHxABIhtXqgvvP1iBCJLD5Flqh9sChHmBoY-PPthMVK4yFhACIhJwaGFybWFjeSBpbiBxdWVlbnPgAQD6AQUI2gEQJQ!16s%2Fg%2F11f8hq9wk9?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>2025-09-24 15:12:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Duane Reade Pharmacy</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>2.8</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>84-32 Jamaica Ave, Woodhaven, NY 11421, United States</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>+1 718-277-5814</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>https://www.walgreens.com/locator/walgreens-8432+jamaica+ave-woodhaven-ny-11421/id=14271</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Duane+Reade+Pharmacy/@40.7470683,-73.9640746,13z/data=!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c25d6743f09f21:0xe0c119b55682d174!8m2!3d40.6922271!4d-73.859511!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3mqAVQKCS9tLzAxcmZwcxABKgwiCHBoYXJtYWN5KAAyHxABIhtXqgvvP1iBCJLD5Flqh9sChHmBoY-PPthMVK4yFhACIhJwaGFybWFjeSBpbiBxdWVlbnPgAQA!16s%2Fg%2F11g079wzv1?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>2025-09-24 15:13:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Maspeth Drugs Pharmacy</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>71-11 Grand Ave, Maspeth, NY 11378, United States</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>+1 718-255-6700</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>http://www.maspethdrugs.com/</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Maspeth+Drugs+Pharmacy/@40.6922271,-73.9316088,13z/data=!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c25fbf1015f13b:0xfbf1dd91aae871b0!8m2!3d40.7280985!4d-73.891925!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUXphR1ZVVnpsUlJSQUKqAVQKCS9tLzAxcmZwcxABKgwiCHBoYXJtYWN5KAAyHxABIhtXqgvvP1iBCJLD5Flqh9sChHmBoY-PPthMVK4yFhACIhJwaGFybWFjeSBpbiBxdWVlbnPgAQD6AQQIABA0!16s%2Fg%2F11sv9l3hzr?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>2025-09-24 15:13:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Glenridge Pharmacy</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>68-01 Myrtle Ave, Glendale, NY 11385, United States</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>+1 718-366-3561</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>http://glenridgerx.com/</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Glenridge+Pharmacy/@40.7280985,-73.9640228,13z/data=!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c25e7f60475d11:0x263bd1bf14723a4e!8m2!3d40.7018193!4d-73.8845844!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTm9jRGczVXkxblJSQUKqAVQKCS9tLzAxcmZwcxABKgwiCHBoYXJtYWN5KAAyHxABIhtXqgvvP1iBCJLD5Flqh9sChHmBoY-PPthMVK4yFhACIhJwaGFybWFjeSBpbiBxdWVlbnPgAQD6AQUIjQIQPw!16s%2Fg%2F11g8npzr93?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>2025-09-24 15:13:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Leader RX Pharmacy - Forest Hills</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>63-46 108th St, Forest Hills, NY 11375, United States</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>+1 718-304-1550</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>https://leaderrxpharmacy.com/</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Leader+RX+Pharmacy+-+Forest+Hills/@40.7280985,-73.9640228,13z/data=!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c25f0c4ab9c01d:0xc74eb9c0ee968262!8m2!3d40.7337941!4d-73.8502242!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTnNNRnB5ZG1sM1JSQUKqAVQKCS9tLzAxcmZwcxABKgwiCHBoYXJtYWN5KAAyHxABIhtXqgvvP1iBCJLD5Flqh9sChHmBoY-PPthMVK4yFhACIhJwaGFybWFjeSBpbiBxdWVlbnPgAQD6AQQIABA2!16s%2Fg%2F11jybtc5ms?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>2025-09-24 15:14:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Best Five Star Pharmacy</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>103-08 Roosevelt Ave, Corona, NY 11368, United States</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>+1 718-476-9000</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>http://www.best5starpharmacy.com/</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Best+Five+Star+Pharmacy/@40.7337941,-73.922322,13z/data=!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c25fc7b34abf7b:0x9480eb2ae4467532!8m2!3d40.749443!4d-73.862469!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTm1jalkyU2pOblJSQUKqAVQKCS9tLzAxcmZwcxABKgwiCHBoYXJtYWN5KAAyHxABIhtXqgvvP1iBCJLD5Flqh9sChHmBoY-PPthMVK4yFhACIhJwaGFybWFjeSBpbiBxdWVlbnPgAQD6AQQIABAY!16s%2Fg%2F11dxqjyk0p?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>2025-09-24 15:14:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>QV Pharmacy</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>214-09 Jamaica Ave, Queens Village, NY 11428, United States</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>+1 718-465-5400</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/QV+Pharmacy/@40.7167452,-73.8157375,13z/data=!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c263d43c418543:0x782d2ea5da8f2e40!8m2!3d40.7167452!4d-73.7436397!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUkhjRTltYTJWbkVBRaoBVAoJL20vMDFyZnBzEAEqDCIIcGhhcm1hY3koADIfEAEiG1eqC-8_WIEIksPkWWqH2wKEeYGhj48-2ExUrjIWEAIiEnBoYXJtYWN5IGluIHF1ZWVuc-ABAPoBBAgAEC4!16s%2Fg%2F11b7rxhnyw?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>2025-09-24 15:15:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>TRU MED PHARMACY</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>109-15 Jamaica Ave, Queens, NY 11418, United States</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>+1 718-487-3333</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>https://www.trumedpharmacyinc.com/</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/TRU+MED+PHARMACY/@40.7167452,-73.8157375,13z/data=!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c2619b3dba0a07:0x9c21a4a5e8a9959d!8m2!3d40.6962144!4d-73.8383541!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUTNiMGxYU1VSUkVBRaoBVAoJL20vMDFyZnBzEAEqDCIIcGhhcm1hY3koADIfEAEiG1eqC-8_WIEIksPkWWqH2wKEeYGhj48-2ExUrjIWEAIiEnBoYXJtYWN5IGluIHF1ZWVuc-ABAPoBBAgAEEE!16s%2Fg%2F11l2p16863?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>2025-09-24 15:15:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Community Pharmacy</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>114-34 Sutphin Blvd, Jamaica, NY 11434, United States</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>+1 718-925-9259</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>https://communitypharmacynyc.com/</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Community+Pharmacy/@40.6962144,-73.9104519,13z/data=!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c266d5bd2cb7ed:0x7b70f3a1e44947e1!8m2!3d40.6853634!4d-73.7934865!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTnNhbU5JYWtSM0VBRaoBVAoJL20vMDFyZnBzEAEqDCIIcGhhcm1hY3koADIfEAEiG1eqC-8_WIEIksPkWWqH2wKEeYGhj48-2ExUrjIWEAIiEnBoYXJtYWN5IGluIHF1ZWVuc-ABAPoBBAgAEEw!16s%2Fg%2F1tf2t47v?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>2025-09-24 15:15:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Community Pharmacy</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>114-34 Sutphin Blvd, Jamaica, NY 11434, United States</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>+1 718-925-9259</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>https://communitypharmacynyc.com/</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Community+Pharmacy/@40.6853634,-73.8655843,13z/data=!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c266d5bd2cb7ed:0x7b70f3a1e44947e1!8m2!3d40.6853634!4d-73.7934865!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTnNhbU5JYWtSM0VBRaoBVAoJL20vMDFyZnBzEAEqDCIIcGhhcm1hY3koADIfEAEiG1eqC-8_WIEIksPkWWqH2wKEeYGhj48-2ExUrjIWEAIiEnBoYXJtYWN5IGluIHF1ZWVuc-ABAPoBBAgAEEw!16s%2Fg%2F1tf2t47v?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>2025-09-24 15:15:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Forest Drugs</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>3.7</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>112-53 Queens Blvd, Flushing, NY 11375, United States</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>+1 718-575-9482</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>https://netrxpharmacy.com/</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/NetRx+Pharmacy/@40.717953,-73.9074548,13z/data=!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c25fda0559a3fd:0xf37cf9640c94d5bb!8m2!3d40.7289301!4d-73.8598845!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUlVjelJYWDJKM0VBRaoBVAoJL20vMDFyZnBzEAEqDCIIcGhhcm1hY3koADIfEAEiG1eqC-8_WIEIksPkWWqH2wKEeYGhj48-2ExUrjIWEAIiEnBoYXJtYWN5IGluIHF1ZWVuc-ABAPoBBAgAEEQ!16s%2Fg%2F11r_k65v53?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>2025-09-24 15:16:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/NetRx+Pharmacy/@40.7289301,-73.9319823,13z/data=!4m13!1m3!2m2!1spharmacy+in+queens!6e2!3m8!1s0x89c25fda0559a3fd:0xf37cf9640c94d5bb!8m2!3d40.7289301!4d-73.8598845!9m1!1b1!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUlVjelJYWDJKM0VBRaoBVAoJL20vMDFyZnBzEAEqDCIIcGhhcm1hY3koADIfEAEiG1eqC-8_WIEIksPkWWqH2wKEeYGhj48-2ExUrjIWEAIiEnBoYXJtYWN5IGluIHF1ZWVuc-ABAPoBBAgAEEQ!16s%2Fg%2F11r_k65v53?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>2025-09-24 15:17:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Glory Pharmacy</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>98-14 Metropolitan Ave, Forest Hills, NY 11375, United States</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>+1 917-300-6041</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Glory+Pharmacy/@40.7289301,-73.9319823,13z/data=!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c25f6d172254b5:0xb889c3b9fc8e437a!8m2!3d40.7108487!4d-73.8541507!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUXllVXRZWVRWUlJSQUKqAVQKCS9tLzAxcmZwcxABKgwiCHBoYXJtYWN5KAAyHxABIhtXqgvvP1iBCJLD5Flqh9sChHmBoY-PPthMVK4yFhACIhJwaGFybWFjeSBpbiBxdWVlbnPgAQD6AQQIABAj!16s%2Fg%2F11lsggtthd?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>2025-09-24 15:18:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Kalish Pharmacy</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>93-20 Liberty Ave, Ozone Park, NY 11417, United States</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>+1 718-641-5648</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>http://kalishpharmacy.com/</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kalish+Pharmacy/@40.7289301,-73.9319823,13z/data=!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c25df434e722f1:0xaf1babdc6168a647!8m2!3d40.6800754!4d-73.8450077!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTlNjRTlYVGsxM0VBRaoBVAoJL20vMDFyZnBzEAEqDCIIcGhhcm1hY3koADIfEAEiG1eqC-8_WIEIksPkWWqH2wKEeYGhj48-2ExUrjIWEAIiEnBoYXJtYWN5IGluIHF1ZWVuc-ABAPoBBAgAEEI!16s%2Fg%2F1q64tj6_8?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>2025-09-24 15:18:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Village Pharmacy Inc</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>90-37 Springfield Blvd, Jamaica, NY 11428, United States</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>+1 718-464-4844</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Village+Pharmacy+Inc/@40.72609,-73.8124348,13z/data=!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c2622ebd79ab07:0x5fe7e41321060ab7!8m2!3d40.72609!4d-73.740337!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTjFjVWxETWtWUkVBRaoBVAoJL20vMDFyZnBzEAEqDCIIcGhhcm1hY3koADIfEAEiG1eqC-8_WIEIksPkWWqH2wKEeYGhj48-2ExUrjIWEAIiEnBoYXJtYWN5IGluIHF1ZWVuc-ABAPoBBAgAECc!16s%2Fg%2F1tk8d0v9?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>2025-09-24 15:18:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Kaneda Pharmacy, Llc</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>40-32 Union St, Flushing, NY 11354, United States</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>+1 718-888-1489</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kaneda+Pharmacy,+Llc/@40.7595439,-73.8982873,13z/data=!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c26010e31fdc33:0xac27c071423c8c4e!8m2!3d40.7595439!4d-73.8261895!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUjRhRzlJUVhOM1JSQUKqAVQKCS9tLzAxcmZwcxABKgwiCHBoYXJtYWN5KAAyHxABIhtXqgvvP1iBCJLD5Flqh9sChHmBoY-PPthMVK4yFhACIhJwaGFybWFjeSBpbiBxdWVlbnPgAQD6AQQIABA0!16s%2Fg%2F11b70gc7_j?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>2025-09-24 15:19:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Drugs &amp; more inc</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>94-19 Jamaica Ave, Woodhaven, NY 11421, United States</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>+1 718-480-6473</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>http://drugsandmorepharmacy.com/</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Drugs+%26+more+inc/@40.7595439,-73.8982873,13z/data=!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c25d0633697d5f:0xbbbe8009bf4eac53!8m2!3d40.6943477!4d-73.8506729!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTm9PRFJMUW5kblJSQUKqAVQKCS9tLzAxcmZwcxABKgwiCHBoYXJtYWN5KAAyHxABIhtXqgvvP1iBCJLD5Flqh9sChHmBoY-PPthMVK4yFhACIhJwaGFybWFjeSBpbiBxdWVlbnPgAQD6AQQIABBB!16s%2Fg%2F11sjmn9x07?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>2025-09-24 15:19:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Care First Pharmacy</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>83-30 Broadway, Elmhurst, NY 11373, United States</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>+1 718-205-0588</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Care+First+Pharmacy/@40.7403757,-73.9513706,13z/data=!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c25fad33099ddb:0x582f9af0c7276761!8m2!3d40.7403757!4d-73.8792728!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTnlkelpIUjIxblJSQUKqAVQKCS9tLzAxcmZwcxABKgwiCHBoYXJtYWN5KAAyHxABIhtXqgvvP1iBCJLD5Flqh9sChHmBoY-PPthMVK4yFhACIhJwaGFybWFjeSBpbiBxdWVlbnPgAQD6AQQIERAy!16s%2Fg%2F1tdxwyq3?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>2025-09-24 15:20:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>QueensCare Pharmacy Corp.</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>3.1</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>84-46 Jamaica Ave, Woodhaven, NY 11421, United States</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>+1 718-480-6597</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/QueensCare+Pharmacy+Corp./@40.692392,-73.9312238,13z/data=!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c25dfdc89407cf:0xe6aa23a6330e67e8!8m2!3d40.692392!4d-73.859126!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTm9hazlVUlhoM1JSQUKqAVQKCS9tLzAxcmZwcxABKgwiCHBoYXJtYWN5KAAyHxABIhtXqgvvP1iBCJLD5Flqh9sChHmBoY-PPthMVK4yFhACIhJwaGFybWFjeSBpbiBxdWVlbnPgAQD6AQQIABAp!16s%2Fg%2F11c3k9551c?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>2025-09-24 15:20:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>KM Pharmacy</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>41-35 Kissena Blvd, Flushing, NY 11355, United States</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>+1 718-888-0110</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/kmpharmacyllc/</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/KM+Pharmacy/@40.692392,-73.9312238,13z/data=!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c260118b8bec63:0xead05482913df92!8m2!3d40.7580929!4d-73.8283056!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maAURDaTlEUVVsUlFVTnZaRU5vZEhsalJqbHZUMnRPZVZKdVNUSlBWbXh6VVdwT1Uxb3piekpTYlZWNFZGaFZkRll4UlJBQqoBVAoJL20vMDFyZnBzEAEqDCIIcGhhcm1hY3koADIfEAEiG1eqC-8_WIEIksPkWWqH2wKEeYGhj48-2ExUrjIWEAIiEnBoYXJtYWN5IGluIHF1ZWVuc-ABAPoBBAgAECQ!16s%2Fg%2F11clyfq63b?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>2025-09-24 15:20:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>CVS Pharmacy</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>3.4</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>178-02 Hillside Ave., Jamaica, NY 11432, United States</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>+1 718-291-7373</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>https://www.cvs.com/store-locator/jamaica-ny-pharmacies/178-02-hillside-ave-jamaica-ny-11432/storeid=2718?WT.mc_id=LS_GOOGLE_RX_2718</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/CVS+Pharmacy/@40.7580929,-73.9004034,13z/data=!3m1!5s0x89c26011dc5f4d41:0x7f622fb258a9be8c!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c2611a20c695f1:0x1541e3a9b3a5e384!8m2!3d40.712061!4d-73.7848615!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTm9Na2xVV0hablJSQUKqAVQKCS9tLzAxcmZwcxABKgwiCHBoYXJtYWN5KAAyHxABIhtXqgvvP1iBCJLD5Flqh9sChHmBoY-PPthMVK4yFhACIhJwaGFybWFjeSBpbiBxdWVlbnPgAQD6AQQIABAg!16s%2Fg%2F11sxchp_5p?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>2025-09-24 15:20:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Kissena Drugs &amp; Surgical Supply, Inc.</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>72-63 Kissena Blvd # 4, Kew Gardens Hills, NY 11367, United States</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>+1 718-793-7658</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>https://rymap.org/business/kissena-drugs-surgical-supply-inc-n0xirw</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kissena+Drugs+%26+Surgical+Supply,+Inc./@40.712061,-73.8569593,13z/data=!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c2605cdfcbce39:0x3e764808ded64719!8m2!3d40.727553!4d-73.812698!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTkVhMG96WkZkUkVBRaoBVAoJL20vMDFyZnBzEAEqDCIIcGhhcm1hY3koADIfEAEiG1eqC-8_WIEIksPkWWqH2wKEeYGhj48-2ExUrjIWEAIiEnBoYXJtYWN5IGluIHF1ZWVuc-ABAPoBBAgAED8!16s%2Fg%2F12628224p?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>2025-09-24 15:21:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Northern Blvd Pharmacy</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>100-16 Northern Blvd, Corona, NY 11368, United States</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>+1 718-899-1700</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/Northern-Blvd-Pharmacy-819806174842752/</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Northern+Blvd+Pharmacy/@40.727553,-73.8847958,13z/data=!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c25fbfc88b1d87:0x3225acd5989b524a!8m2!3d40.7571285!4d-73.8676939!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3mqAVQKCS9tLzAxcmZwcxABKgwiCHBoYXJtYWN5KAAyHxABIhtXqgvvP1iBCJLD5Flqh9sChHmBoY-PPthMVK4yFhACIhJwaGFybWFjeSBpbiBxdWVlbnPgAQA!16s%2Fg%2F11dyzn_7vg?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>2025-09-24 15:21:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Jewel Pharmacy</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>70-35 Parsons Blvd, Flushing, NY 11365, United States</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>+1 718-591-1040</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>https://www.jewelpharm.com/</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Jewel+Pharmacy/@40.7571285,-73.9397917,13z/data=!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c260588f41701d:0xff1f6fca9dd1163!8m2!3d40.7312932!4d-73.8098763!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTmtYM1IyWjA5UkVBRaoBVAoJL20vMDFyZnBzEAEqDCIIcGhhcm1hY3koADIfEAEiG1eqC-8_WIEIksPkWWqH2wKEeYGhj48-2ExUrjIWEAIiEnBoYXJtYWN5IGluIHF1ZWVuc-ABAPoBBAgAECM!16s%2Fg%2F11ckrcp3wq?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>2025-09-24 15:21:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Accuscript Pharmacy 均康西藥房</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>245-34 Horace Harding Expy, Douglaston, NY 11362, United States</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>+1 718-229-1450</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>http://www.accuscript.nyc/</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Accuscript+Pharmacy+%E5%9D%87%E5%BA%B7%E8%A5%BF%E8%97%A5%E6%88%BF/@40.7312932,-73.8819741,13z/data=!3m1!5s0x89c260588e25c183:0x983990bce5b5d084!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c289198af8f1e1:0x2af236f296b16667!8m2!3d40.7599209!4d-73.7324945!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTkNlVGd6WjNKblJSQUKqAVQKCS9tLzAxcmZwcxABKgwiCHBoYXJtYWN5KAAyHxABIhtXqgvvP1iBCJLD5Flqh9sChHmBoY-PPthMVK4yFhACIhJwaGFybWFjeSBpbiBxdWVlbnPgAQD6AQQIEBA4!16s%2Fg%2F11rts_94xh?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>2025-09-24 15:22:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Accuscript Pharmacy 均康西藥房</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>245-34 Horace Harding Expy, Douglaston, NY 11362, United States</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>+1 718-229-1450</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>http://www.accuscript.nyc/</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Accuscript+Pharmacy+%E5%9D%87%E5%BA%B7%E8%A5%BF%E8%97%A5%E6%88%BF/@40.7599209,-73.8045923,13z/data=!4m11!1m3!2m2!1spharmacy+in+queens!6e2!3m6!1s0x89c289198af8f1e1:0x2af236f296b16667!8m2!3d40.7599209!4d-73.7324945!15sChJwaGFybWFjeSBpbiBxdWVlbnNaFCIScGhhcm1hY3kgaW4gcXVlZW5zkgEIcGhhcm1hY3maASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTkNlVGd6WjNKblJSQUKqAVQKCS9tLzAxcmZwcxABKgwiCHBoYXJtYWN5KAAyHxABIhtXqgvvP1iBCJLD5Flqh9sChHmBoY-PPthMVK4yFhACIhJwaGFybWFjeSBpbiBxdWVlbnPgAQD6AQQIEBA4!16s%2Fg%2F11rts_94xh?hl=en&amp;entry=ttu&amp;g_ep=EgoyMDI1MDkyMS4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>2025-09-24 15:22:41</t>
         </is>
       </c>
     </row>
